--- a/biology/Zoologie/Chèvre_du_Toggenbourg/Chèvre_du_Toggenbourg.xlsx
+++ b/biology/Zoologie/Chèvre_du_Toggenbourg/Chèvre_du_Toggenbourg.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ch%C3%A8vre_du_Toggenbourg</t>
+          <t>Chèvre_du_Toggenbourg</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La chèvre du Toggenbourg vient à l'origine du canton de Saint-Gall (Suisse) et plus précisément de la région du Toggenbourg. Elle porte le nom de toggenburger en allemand ou le diminutif de toggs[1].
+La chèvre du Toggenbourg vient à l'origine du canton de Saint-Gall (Suisse) et plus précisément de la région du Toggenbourg. Elle porte le nom de toggenburger en allemand ou le diminutif de toggs.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ch%C3%A8vre_du_Toggenbourg</t>
+          <t>Chèvre_du_Toggenbourg</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle est issue d'une population locale établie de longue date, au moins les années 1600, dans le canton de Saint-Gall. Elle est surtout présente dans le centre et l'est du pays et doit son nom au district de Toggenburg. Elle représente environ 17 % du cheptel de chèvres total suisse. L'effectif est stable depuis plus de vingt ans, oscillant entre 4 000 et 5 000 individus[2]. C'est la race de chèvre ayant le plus ancien registre généalogique au monde : il a été ouvert en 1880[2].
-Cette race a été introduite dans de nombreux pays, en particulier en Amérique du Nord où elle fait partie des races communes. Aux États-Unis, elle est présente depuis le début du XVIIe siècle et comte entre 2 000 et 3 000 individus depuis 1990[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est issue d'une population locale établie de longue date, au moins les années 1600, dans le canton de Saint-Gall. Elle est surtout présente dans le centre et l'est du pays et doit son nom au district de Toggenburg. Elle représente environ 17 % du cheptel de chèvres total suisse. L'effectif est stable depuis plus de vingt ans, oscillant entre 4 000 et 5 000 individus. C'est la race de chèvre ayant le plus ancien registre généalogique au monde : il a été ouvert en 1880.
+Cette race a été introduite dans de nombreux pays, en particulier en Amérique du Nord où elle fait partie des races communes. Aux États-Unis, elle est présente depuis le début du XVIIe siècle et comte entre 2 000 et 3 000 individus depuis 1990.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ch%C3%A8vre_du_Toggenbourg</t>
+          <t>Chèvre_du_Toggenbourg</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,10 +558,12 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est le plus souvent non-cornue. Sa robe varie d'un brun clair à un gris souris avec des marques blanches à la tête, au quartier arrière et au bas de ses pattes. Le pelage est hétérogène, court à long. Souvent les poils longs, plus clairs, sont répartis sur le dos et les cuisses.
-La hauteur au garrot : va de 80 cm chez les mâles à 75 cm chez les femelles. La masse fluctue entre 65 kg chez les mâles et 45 kg chez les femelles[2].
+La hauteur au garrot : va de 80 cm chez les mâles à 75 cm chez les femelles. La masse fluctue entre 65 kg chez les mâles et 45 kg chez les femelles.
 </t>
         </is>
       </c>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ch%C3%A8vre_du_Toggenbourg</t>
+          <t>Chèvre_du_Toggenbourg</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,9 +592,11 @@
           <t>Aptitudes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La chèvre du Toggenbourg est avant tout une race laitière. Elle produit en moyenne 780 kg[N 1] de lait sur une période de lactation de 270 jours avec un taux de matière grasse de 3,5 %[2]. La production aux États-Unis, a été portée à 930 kg et le record est de 1 869 kg sur 309 jours[3]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La chèvre du Toggenbourg est avant tout une race laitière. Elle produit en moyenne 780 kg[N 1] de lait sur une période de lactation de 270 jours avec un taux de matière grasse de 3,5 %. La production aux États-Unis, a été portée à 930 kg et le record est de 1 869 kg sur 309 jours
 Elle est bien adaptée aux amplitudes de température que l'on trouve dans ses montagnes natales.
 </t>
         </is>
@@ -590,7 +608,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ch%C3%A8vre_du_Toggenbourg</t>
+          <t>Chèvre_du_Toggenbourg</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -609,6 +627,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
